--- a/tests/controller/assets/JavaGeneratedIndex.xlsx
+++ b/tests/controller/assets/JavaGeneratedIndex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="932">
   <si>
     <t>ANON-PatientName</t>
   </si>
@@ -82,7 +82,7 @@
     <t>527408-000002</t>
   </si>
   <si>
-    <t>JOE DOE</t>
+    <t>SEKOKODIYE^SETSHEGO^GRACE</t>
   </si>
   <si>
     <t>CAN7112150992085</t>
@@ -109,7 +109,7 @@
     <t>527408-000003</t>
   </si>
   <si>
-    <t>PETER PIPER</t>
+    <t>MISOYETHU POYO</t>
   </si>
   <si>
     <t>2001035592084</t>
@@ -163,7 +163,7 @@
     <t>527408-000005</t>
   </si>
   <si>
-    <t>MOHAMMED NUTS</t>
+    <t>NAZAREEN N. KHAN</t>
   </si>
   <si>
     <t>6707280126081</t>
@@ -208,7 +208,7 @@
     <t>527408-000007</t>
   </si>
   <si>
-    <t>BJORN BORG</t>
+    <t>MANHIQUE NELSON^*</t>
   </si>
   <si>
     <t>30MA88945</t>
@@ -247,7 +247,7 @@
     <t>527408-000009</t>
   </si>
   <si>
-    <t>MISS N MISSING</t>
+    <t>MISS N TADANA</t>
   </si>
   <si>
     <t>781103NT</t>
@@ -316,7 +316,7 @@
     <t>527408-000012</t>
   </si>
   <si>
-    <t>NANA PERKY Z MS</t>
+    <t>KHUMALO OLUHLE Z MS</t>
   </si>
   <si>
     <t>180216</t>
@@ -356,6 +356,2460 @@
   </si>
   <si>
     <t>20050410</t>
+  </si>
+  <si>
+    <t>527408-000014</t>
+  </si>
+  <si>
+    <t>MALINGA NOMONDE MS</t>
+  </si>
+  <si>
+    <t>8302200823088</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>20210725</t>
+  </si>
+  <si>
+    <t>20220228</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>CT 34/22</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.1167</t>
+  </si>
+  <si>
+    <t>1.2.840.113619.2.278.3.2831181056.414.1646027710.623</t>
+  </si>
+  <si>
+    <t>527408-000015</t>
+  </si>
+  <si>
+    <t>MAHLAMBI NOLWAZI MS</t>
+  </si>
+  <si>
+    <t>7702101013088</t>
+  </si>
+  <si>
+    <t>1281</t>
+  </si>
+  <si>
+    <t>20180827</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>CT 35/22</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.2905</t>
+  </si>
+  <si>
+    <t>1.2.840.113619.2.278.3.2831181056.414.1646027711.126</t>
+  </si>
+  <si>
+    <t>527408-000016</t>
+  </si>
+  <si>
+    <t>SITHOLE  CYNTHIA THEMBISILE</t>
+  </si>
+  <si>
+    <t>6205150994084</t>
+  </si>
+  <si>
+    <t>3388</t>
+  </si>
+  <si>
+    <t>20121116</t>
+  </si>
+  <si>
+    <t>20220225</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>CT 32/22</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.3832</t>
+  </si>
+  <si>
+    <t>1.2.840.113619.2.278.3.2831181056.402.1645770506.73</t>
+  </si>
+  <si>
+    <t>527408-000017</t>
+  </si>
+  <si>
+    <t>SINGH THALWANTH MR</t>
+  </si>
+  <si>
+    <t>4707095050056</t>
+  </si>
+  <si>
+    <t>2898</t>
+  </si>
+  <si>
+    <t>20140321</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>CT 33/22</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6211</t>
+  </si>
+  <si>
+    <t>1.2.840.113619.2.278.3.2831181056.402.1645770506.560</t>
+  </si>
+  <si>
+    <t>527408-000018</t>
+  </si>
+  <si>
+    <t>MOLAAKGOSI^MOTHOOTSILE^VIOLET</t>
+  </si>
+  <si>
+    <t>CAN3704290262082</t>
+  </si>
+  <si>
+    <t>3139</t>
+  </si>
+  <si>
+    <t>20100711</t>
+  </si>
+  <si>
+    <t>20190213</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6503</t>
+  </si>
+  <si>
+    <t>1.2.392.200046.100.2.1.176831339746111.190213133256</t>
+  </si>
+  <si>
+    <t>527408-000019</t>
+  </si>
+  <si>
+    <t>NOMADWAYI BUYISWA</t>
+  </si>
+  <si>
+    <t>6804070825087</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>20150423</t>
+  </si>
+  <si>
+    <t>20230807</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>571/23</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6506</t>
+  </si>
+  <si>
+    <t>1.2.410.200059.12.1.100.20230807161734281.1296</t>
+  </si>
+  <si>
+    <t>527408-000020</t>
+  </si>
+  <si>
+    <t>Dawn Olsen</t>
+  </si>
+  <si>
+    <t>574856-000169</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>20141106</t>
+  </si>
+  <si>
+    <t>20200407</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6519</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.96102</t>
+  </si>
+  <si>
+    <t>20160618</t>
+  </si>
+  <si>
+    <t>20211118</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>5226</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6576</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.277758</t>
+  </si>
+  <si>
+    <t>20170113</t>
+  </si>
+  <si>
+    <t>20220615</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>4428</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6573</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.231774</t>
+  </si>
+  <si>
+    <t>527408-000021</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>20111102</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6522</t>
+  </si>
+  <si>
+    <t>527408-000022</t>
+  </si>
+  <si>
+    <t>Angela Walker</t>
+  </si>
+  <si>
+    <t>574856-000246</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>20201116</t>
+  </si>
+  <si>
+    <t>20210514</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6525</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.19208</t>
+  </si>
+  <si>
+    <t>527408-000023</t>
+  </si>
+  <si>
+    <t>Anthony Lee</t>
+  </si>
+  <si>
+    <t>574856-000199</t>
+  </si>
+  <si>
+    <t>2164</t>
+  </si>
+  <si>
+    <t>20170121</t>
+  </si>
+  <si>
+    <t>20221225</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6528</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.89055</t>
+  </si>
+  <si>
+    <t>527408-000024</t>
+  </si>
+  <si>
+    <t>Anthony Rivers</t>
+  </si>
+  <si>
+    <t>574856-000126</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>20190206</t>
+  </si>
+  <si>
+    <t>20220304</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>4645</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6531</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.238619</t>
+  </si>
+  <si>
+    <t>527408-000025</t>
+  </si>
+  <si>
+    <t>Brandy Vang</t>
+  </si>
+  <si>
+    <t>574856-000045</t>
+  </si>
+  <si>
+    <t>2318</t>
+  </si>
+  <si>
+    <t>20131118</t>
+  </si>
+  <si>
+    <t>20200324</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1878</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6537</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.94418</t>
+  </si>
+  <si>
+    <t>20151220</t>
+  </si>
+  <si>
+    <t>20220425</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>5562</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6534</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.313586</t>
+  </si>
+  <si>
+    <t>20161024</t>
+  </si>
+  <si>
+    <t>20230228</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6540</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.2585</t>
+  </si>
+  <si>
+    <t>527408-000026</t>
+  </si>
+  <si>
+    <t>Brian Jackson</t>
+  </si>
+  <si>
+    <t>574856-000201</t>
+  </si>
+  <si>
+    <t>3444</t>
+  </si>
+  <si>
+    <t>20120517</t>
+  </si>
+  <si>
+    <t>20211021</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>4439</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6543</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.233526</t>
+  </si>
+  <si>
+    <t>527408-000027</t>
+  </si>
+  <si>
+    <t>Bruce Cox</t>
+  </si>
+  <si>
+    <t>574856-000206</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>20180501</t>
+  </si>
+  <si>
+    <t>20200519</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>4664</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6546</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.239707</t>
+  </si>
+  <si>
+    <t>527408-000028</t>
+  </si>
+  <si>
+    <t>Carlos Santos</t>
+  </si>
+  <si>
+    <t>574856-000264</t>
+  </si>
+  <si>
+    <t>3461</t>
+  </si>
+  <si>
+    <t>20100808</t>
+  </si>
+  <si>
+    <t>20200129</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2834</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6549</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.155225</t>
+  </si>
+  <si>
+    <t>527408-000029</t>
+  </si>
+  <si>
+    <t>Christopher Mitchell</t>
+  </si>
+  <si>
+    <t>574856-000058</t>
+  </si>
+  <si>
+    <t>2639</t>
+  </si>
+  <si>
+    <t>20141025</t>
+  </si>
+  <si>
+    <t>20220115</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1739</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6555</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.87978</t>
+  </si>
+  <si>
+    <t>20141027</t>
+  </si>
+  <si>
+    <t>20220117</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>5799</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6552</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.338449</t>
+  </si>
+  <si>
+    <t>527408-000030</t>
+  </si>
+  <si>
+    <t>Christopher Reed</t>
+  </si>
+  <si>
+    <t>574856-000153</t>
+  </si>
+  <si>
+    <t>3635</t>
+  </si>
+  <si>
+    <t>20100825</t>
+  </si>
+  <si>
+    <t>20200807</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6558</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.41315</t>
+  </si>
+  <si>
+    <t>527408-000031</t>
+  </si>
+  <si>
+    <t>Cynthia Strickland</t>
+  </si>
+  <si>
+    <t>574856-000212</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>20210321</t>
+  </si>
+  <si>
+    <t>20210831</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6561</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.16528</t>
+  </si>
+  <si>
+    <t>527408-000032</t>
+  </si>
+  <si>
+    <t>Daniel Lyons</t>
+  </si>
+  <si>
+    <t>574856-000139</t>
+  </si>
+  <si>
+    <t>1285</t>
+  </si>
+  <si>
+    <t>20190222</t>
+  </si>
+  <si>
+    <t>20220830</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6564</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.9598</t>
+  </si>
+  <si>
+    <t>527408-000033</t>
+  </si>
+  <si>
+    <t>Daniel Weaver</t>
+  </si>
+  <si>
+    <t>574856-000263</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>20151109</t>
+  </si>
+  <si>
+    <t>20201015</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1942</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6567</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.96139</t>
+  </si>
+  <si>
+    <t>527408-000034</t>
+  </si>
+  <si>
+    <t>Danny Cooper</t>
+  </si>
+  <si>
+    <t>574856-000118</t>
+  </si>
+  <si>
+    <t>1644</t>
+  </si>
+  <si>
+    <t>20151002</t>
+  </si>
+  <si>
+    <t>20200402</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>3188</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6570</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.174897</t>
+  </si>
+  <si>
+    <t>527408-000035</t>
+  </si>
+  <si>
+    <t>Donald Mata</t>
+  </si>
+  <si>
+    <t>574856-000193</t>
+  </si>
+  <si>
+    <t>3358</t>
+  </si>
+  <si>
+    <t>20110802</t>
+  </si>
+  <si>
+    <t>20201011</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>5184</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6579</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.273207</t>
+  </si>
+  <si>
+    <t>20120109</t>
+  </si>
+  <si>
+    <t>20210320</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>1865</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6582</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.91646</t>
+  </si>
+  <si>
+    <t>20120418</t>
+  </si>
+  <si>
+    <t>20210628</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6753</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.56034</t>
+  </si>
+  <si>
+    <t>527408-000036</t>
+  </si>
+  <si>
+    <t>Edwin Roberts</t>
+  </si>
+  <si>
+    <t>574856-000154</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>20161221</t>
+  </si>
+  <si>
+    <t>20220619</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2364</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6585</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.127615</t>
+  </si>
+  <si>
+    <t>527408-000037</t>
+  </si>
+  <si>
+    <t>Eric Wilson</t>
+  </si>
+  <si>
+    <t>574856-000044</t>
+  </si>
+  <si>
+    <t>2273</t>
+  </si>
+  <si>
+    <t>20160414</t>
+  </si>
+  <si>
+    <t>20220705</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6588</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.70232</t>
+  </si>
+  <si>
+    <t>20160829</t>
+  </si>
+  <si>
+    <t>20221119</t>
+  </si>
+  <si>
+    <t>527408-000038</t>
+  </si>
+  <si>
+    <t>EVANS^MIKE</t>
+  </si>
+  <si>
+    <t>929_MRN</t>
+  </si>
+  <si>
+    <t>1773</t>
+  </si>
+  <si>
+    <t>20030825</t>
+  </si>
+  <si>
+    <t>20080702</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6592</t>
+  </si>
+  <si>
+    <t>1.2.276.0.7230010.3.1.4.917496745.1808.1215000678.1</t>
+  </si>
+  <si>
+    <t>527408-000039</t>
+  </si>
+  <si>
+    <t>Heather Mitchell</t>
+  </si>
+  <si>
+    <t>574856-000235</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>20190729</t>
+  </si>
+  <si>
+    <t>20200214</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6595</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.18555</t>
+  </si>
+  <si>
+    <t>527408-000040</t>
+  </si>
+  <si>
+    <t>Jacqueline Hill</t>
+  </si>
+  <si>
+    <t>574856-000207</t>
+  </si>
+  <si>
+    <t>1319</t>
+  </si>
+  <si>
+    <t>20160924</t>
+  </si>
+  <si>
+    <t>20200505</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>4545</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6601</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.238290</t>
+  </si>
+  <si>
+    <t>20170309</t>
+  </si>
+  <si>
+    <t>20201018</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6759</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.129424</t>
+  </si>
+  <si>
+    <t>20180922</t>
+  </si>
+  <si>
+    <t>20220503</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6598</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.84639</t>
+  </si>
+  <si>
+    <t>527408-000041</t>
+  </si>
+  <si>
+    <t>James Jones</t>
+  </si>
+  <si>
+    <t>574856-000129</t>
+  </si>
+  <si>
+    <t>2713</t>
+  </si>
+  <si>
+    <t>20150525</t>
+  </si>
+  <si>
+    <t>20221028</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>3831</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6604</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.202719</t>
+  </si>
+  <si>
+    <t>527408-000042</t>
+  </si>
+  <si>
+    <t>Jay Walker</t>
+  </si>
+  <si>
+    <t>574856-000048</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>20190318</t>
+  </si>
+  <si>
+    <t>20200217</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6607</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.2594</t>
+  </si>
+  <si>
+    <t>527408-000043</t>
+  </si>
+  <si>
+    <t>Jeff Young</t>
+  </si>
+  <si>
+    <t>574856-000209</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>20200303</t>
+  </si>
+  <si>
+    <t>20230726</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6610</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.70265</t>
+  </si>
+  <si>
+    <t>527408-000044</t>
+  </si>
+  <si>
+    <t>John Riley</t>
+  </si>
+  <si>
+    <t>574856-000043</t>
+  </si>
+  <si>
+    <t>2260</t>
+  </si>
+  <si>
+    <t>20170111</t>
+  </si>
+  <si>
+    <t>20230321</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>5563</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6613</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.313589</t>
+  </si>
+  <si>
+    <t>527408-000045</t>
+  </si>
+  <si>
+    <t>Johnny Chandler</t>
+  </si>
+  <si>
+    <t>574856-000121</t>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>20170911</t>
+  </si>
+  <si>
+    <t>20220131</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6616</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.120759</t>
+  </si>
+  <si>
+    <t>527408-000046</t>
+  </si>
+  <si>
+    <t>Jordan Buck</t>
+  </si>
+  <si>
+    <t>574856-000109</t>
+  </si>
+  <si>
+    <t>2921</t>
+  </si>
+  <si>
+    <t>20140620</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>5485</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6619</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.303600</t>
+  </si>
+  <si>
+    <t>527408-000047</t>
+  </si>
+  <si>
+    <t>Jordan Duncan</t>
+  </si>
+  <si>
+    <t>574856-000113</t>
+  </si>
+  <si>
+    <t>3055</t>
+  </si>
+  <si>
+    <t>20140316</t>
+  </si>
+  <si>
+    <t>20220727</t>
+  </si>
+  <si>
+    <t>4663</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6622</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.239704</t>
+  </si>
+  <si>
+    <t>527408-000048</t>
+  </si>
+  <si>
+    <t>Joseph Vasquez</t>
+  </si>
+  <si>
+    <t>574856-000244</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>20210919</t>
+  </si>
+  <si>
+    <t>20221213</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6628</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.18824</t>
+  </si>
+  <si>
+    <t>20220427</t>
+  </si>
+  <si>
+    <t>20230721</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>1796</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6625</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.89045</t>
+  </si>
+  <si>
+    <t>527408-000049</t>
+  </si>
+  <si>
+    <t>Joseph Warner</t>
+  </si>
+  <si>
+    <t>574856-000046</t>
+  </si>
+  <si>
+    <t>2687</t>
+  </si>
+  <si>
+    <t>20130618</t>
+  </si>
+  <si>
+    <t>20201026</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6631</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.2588</t>
+  </si>
+  <si>
+    <t>527408-000050</t>
+  </si>
+  <si>
+    <t>Joshua Caldwell</t>
+  </si>
+  <si>
+    <t>574856-000033</t>
+  </si>
+  <si>
+    <t>1226</t>
+  </si>
+  <si>
+    <t>20200521</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6634</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.1694</t>
+  </si>
+  <si>
+    <t>527408-000051</t>
+  </si>
+  <si>
+    <t>Karen Wood</t>
+  </si>
+  <si>
+    <t>574856-000138</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>20200701</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6637</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.9595</t>
+  </si>
+  <si>
+    <t>527408-000052</t>
+  </si>
+  <si>
+    <t>Keith Mcmillan</t>
+  </si>
+  <si>
+    <t>574856-000253</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>20210215</t>
+  </si>
+  <si>
+    <t>20230119</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6640</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.19993</t>
+  </si>
+  <si>
+    <t>527408-000053</t>
+  </si>
+  <si>
+    <t>Laura Mcclure</t>
+  </si>
+  <si>
+    <t>574856-000213</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>20190710</t>
+  </si>
+  <si>
+    <t>20210219</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6643</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.29539</t>
+  </si>
+  <si>
+    <t>527408-000054</t>
+  </si>
+  <si>
+    <t>Lauren Ruiz</t>
+  </si>
+  <si>
+    <t>574856-000148</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>20180505</t>
+  </si>
+  <si>
+    <t>20201017</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6646</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.9626</t>
+  </si>
+  <si>
+    <t>527408-000055</t>
+  </si>
+  <si>
+    <t>Lisa Stevens</t>
+  </si>
+  <si>
+    <t>574856-000060</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>20220612</t>
+  </si>
+  <si>
+    <t>20221110</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>1674</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6652</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.82688</t>
+  </si>
+  <si>
+    <t>20230126</t>
+  </si>
+  <si>
+    <t>20230626</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6649</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.4277</t>
+  </si>
+  <si>
+    <t>527408-000056</t>
+  </si>
+  <si>
+    <t>Margaret Lyons</t>
+  </si>
+  <si>
+    <t>574856-000039</t>
+  </si>
+  <si>
+    <t>1276</t>
+  </si>
+  <si>
+    <t>20161114</t>
+  </si>
+  <si>
+    <t>20200513</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>2261</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6655</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.123732</t>
+  </si>
+  <si>
+    <t>20181018</t>
+  </si>
+  <si>
+    <t>20220416</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6658</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.1712</t>
+  </si>
+  <si>
+    <t>527408-000057</t>
+  </si>
+  <si>
+    <t>Mary Martinez</t>
+  </si>
+  <si>
+    <t>574856-000200</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>20140926</t>
+  </si>
+  <si>
+    <t>20201004</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6661</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.13264</t>
+  </si>
+  <si>
+    <t>527408-000058</t>
+  </si>
+  <si>
+    <t>Michelle Hayes</t>
+  </si>
+  <si>
+    <t>574856-000056</t>
+  </si>
+  <si>
+    <t>2136</t>
+  </si>
+  <si>
+    <t>20151212</t>
+  </si>
+  <si>
+    <t>20211017</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6664</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.4265</t>
+  </si>
+  <si>
+    <t>527408-000059</t>
+  </si>
+  <si>
+    <t>Preston Bowen Jr.</t>
+  </si>
+  <si>
+    <t>574856-000098</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>20170916</t>
+  </si>
+  <si>
+    <t>20230330</t>
+  </si>
+  <si>
+    <t>5211</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6667</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.276317</t>
+  </si>
+  <si>
+    <t>527408-000060</t>
+  </si>
+  <si>
+    <t>Rebecca Jones</t>
+  </si>
+  <si>
+    <t>574856-000186</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>20200613</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6774</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.10767</t>
+  </si>
+  <si>
+    <t>20171005</t>
+  </si>
+  <si>
+    <t>20210225</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>4498</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6670</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.236358</t>
+  </si>
+  <si>
+    <t>20200216</t>
+  </si>
+  <si>
+    <t>20230709</t>
+  </si>
+  <si>
+    <t>527408-000061</t>
+  </si>
+  <si>
+    <t>Rebecca Zavala</t>
+  </si>
+  <si>
+    <t>574856-000171</t>
+  </si>
+  <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>20170501</t>
+  </si>
+  <si>
+    <t>20210101</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>5088</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6777</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.267753</t>
+  </si>
+  <si>
+    <t>20181101</t>
+  </si>
+  <si>
+    <t>20220704</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6675</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.9706</t>
+  </si>
+  <si>
+    <t>527408-000062</t>
+  </si>
+  <si>
+    <t>Richard Glenn</t>
+  </si>
+  <si>
+    <t>574856-000227</t>
+  </si>
+  <si>
+    <t>2760</t>
+  </si>
+  <si>
+    <t>20130728</t>
+  </si>
+  <si>
+    <t>20210216</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6681</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.16586</t>
+  </si>
+  <si>
+    <t>20210603</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6678</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.25964</t>
+  </si>
+  <si>
+    <t>527408-000063</t>
+  </si>
+  <si>
+    <t>Richard Leon</t>
+  </si>
+  <si>
+    <t>574856-000238</t>
+  </si>
+  <si>
+    <t>1853</t>
+  </si>
+  <si>
+    <t>20180228</t>
+  </si>
+  <si>
+    <t>20230327</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6684</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.18564</t>
+  </si>
+  <si>
+    <t>527408-000064</t>
+  </si>
+  <si>
+    <t>Riley Hansen</t>
+  </si>
+  <si>
+    <t>574856-000134</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>20180401</t>
+  </si>
+  <si>
+    <t>20200317</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>2769</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6693</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.151054</t>
+  </si>
+  <si>
+    <t>20180512</t>
+  </si>
+  <si>
+    <t>20200427</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6687</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.20052</t>
+  </si>
+  <si>
+    <t>20180928</t>
+  </si>
+  <si>
+    <t>20200913</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>917</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6690</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.52422</t>
+  </si>
+  <si>
+    <t>20190616</t>
+  </si>
+  <si>
+    <t>20210601</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6699</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.157742</t>
+  </si>
+  <si>
+    <t>20190926</t>
+  </si>
+  <si>
+    <t>20210911</t>
+  </si>
+  <si>
+    <t>20201230</t>
+  </si>
+  <si>
+    <t>20221216</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>4796</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6696</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.252279</t>
+  </si>
+  <si>
+    <t>20210208</t>
+  </si>
+  <si>
+    <t>20230125</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>3401</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6702</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.189686</t>
+  </si>
+  <si>
+    <t>20210801</t>
+  </si>
+  <si>
+    <t>20230718</t>
+  </si>
+  <si>
+    <t>527408-000065</t>
+  </si>
+  <si>
+    <t>Samantha Gilmore</t>
+  </si>
+  <si>
+    <t>574856-000162</t>
+  </si>
+  <si>
+    <t>3372</t>
+  </si>
+  <si>
+    <t>20130207</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6707</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.9673</t>
+  </si>
+  <si>
+    <t>527408-000066</t>
+  </si>
+  <si>
+    <t>Sarah Rivera</t>
+  </si>
+  <si>
+    <t>574856-000127</t>
+  </si>
+  <si>
+    <t>1734</t>
+  </si>
+  <si>
+    <t>20150712</t>
+  </si>
+  <si>
+    <t>20200410</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6710</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.108028</t>
+  </si>
+  <si>
+    <t>20180528</t>
+  </si>
+  <si>
+    <t>20230225</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>975</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6783</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.52623</t>
+  </si>
+  <si>
+    <t>527408-000067</t>
+  </si>
+  <si>
+    <t>Shelly Moore</t>
+  </si>
+  <si>
+    <t>574856-000094</t>
+  </si>
+  <si>
+    <t>1297</t>
+  </si>
+  <si>
+    <t>20170705</t>
+  </si>
+  <si>
+    <t>20210122</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6716</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.42903</t>
+  </si>
+  <si>
+    <t>20171116</t>
+  </si>
+  <si>
+    <t>20210605</t>
+  </si>
+  <si>
+    <t>20190716</t>
+  </si>
+  <si>
+    <t>20230202</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1259</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6786</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.59113</t>
+  </si>
+  <si>
+    <t>20191220</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>4421</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6713</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.231751</t>
+  </si>
+  <si>
+    <t>527408-000068</t>
+  </si>
+  <si>
+    <t>Stanley Hodges</t>
+  </si>
+  <si>
+    <t>574856-000062</t>
+  </si>
+  <si>
+    <t>3294</t>
+  </si>
+  <si>
+    <t>20120414</t>
+  </si>
+  <si>
+    <t>20210421</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6720</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.4283</t>
+  </si>
+  <si>
+    <t>527408-000069</t>
+  </si>
+  <si>
+    <t>Steve Campbell</t>
+  </si>
+  <si>
+    <t>574856-000117</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>20150719</t>
+  </si>
+  <si>
+    <t>20220831</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>5719</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6726</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.328189</t>
+  </si>
+  <si>
+    <t>20160421</t>
+  </si>
+  <si>
+    <t>20230604</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>3024</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6723</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.159386</t>
+  </si>
+  <si>
+    <t>527408-000070</t>
+  </si>
+  <si>
+    <t>Steven Manning</t>
+  </si>
+  <si>
+    <t>574856-000069</t>
+  </si>
+  <si>
+    <t>2058</t>
+  </si>
+  <si>
+    <t>20170529</t>
+  </si>
+  <si>
+    <t>20230116</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6729</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.7829</t>
+  </si>
+  <si>
+    <t>527408-000071</t>
+  </si>
+  <si>
+    <t>Tammy Howell</t>
+  </si>
+  <si>
+    <t>574856-000038</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>20210221</t>
+  </si>
+  <si>
+    <t>20220815</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>744</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6732</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.43002</t>
+  </si>
+  <si>
+    <t>527408-000072</t>
+  </si>
+  <si>
+    <t>Thomas Gill</t>
+  </si>
+  <si>
+    <t>574856-000059</t>
+  </si>
+  <si>
+    <t>1385</t>
+  </si>
+  <si>
+    <t>20160403</t>
+  </si>
+  <si>
+    <t>20200118</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6735</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.56024</t>
+  </si>
+  <si>
+    <t>527408-000073</t>
+  </si>
+  <si>
+    <t>Tracy Johnson</t>
+  </si>
+  <si>
+    <t>574856-000077</t>
+  </si>
+  <si>
+    <t>2067</t>
+  </si>
+  <si>
+    <t>20171126</t>
+  </si>
+  <si>
+    <t>20230725</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6738</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.4331</t>
+  </si>
+  <si>
+    <t>527408-000074</t>
+  </si>
+  <si>
+    <t>Troy Perez</t>
+  </si>
+  <si>
+    <t>574856-000053</t>
+  </si>
+  <si>
+    <t>20160430</t>
+  </si>
+  <si>
+    <t>20220205</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6741</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.36488</t>
+  </si>
+  <si>
+    <t>527408-000075</t>
+  </si>
+  <si>
+    <t>Amber Cunningham</t>
+  </si>
+  <si>
+    <t>574856-000208</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>20220723</t>
+  </si>
+  <si>
+    <t>20230616</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>4617</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6744</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.238526</t>
+  </si>
+  <si>
+    <t>527408-000076</t>
+  </si>
+  <si>
+    <t>Craig Haley</t>
+  </si>
+  <si>
+    <t>574856-000114</t>
+  </si>
+  <si>
+    <t>20200925</t>
+  </si>
+  <si>
+    <t>20210523</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6747</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.89070</t>
+  </si>
+  <si>
+    <t>527408-000077</t>
+  </si>
+  <si>
+    <t>David Marks</t>
+  </si>
+  <si>
+    <t>574856-000075</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>20210528</t>
+  </si>
+  <si>
+    <t>20211013</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6750</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.4325</t>
+  </si>
+  <si>
+    <t>527408-000078</t>
+  </si>
+  <si>
+    <t>Dr. Robert Stewart</t>
+  </si>
+  <si>
+    <t>574856-000149</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>20150704</t>
+  </si>
+  <si>
+    <t>20210116</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6756</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.9629</t>
+  </si>
+  <si>
+    <t>527408-000079</t>
+  </si>
+  <si>
+    <t>Michael Serrano</t>
+  </si>
+  <si>
+    <t>574856-000237</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>20190310</t>
+  </si>
+  <si>
+    <t>20221221</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6762</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.18561</t>
+  </si>
+  <si>
+    <t>527408-000080</t>
+  </si>
+  <si>
+    <t>Mr. Kevin Wade MD</t>
+  </si>
+  <si>
+    <t>574856-000160</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>20191216</t>
+  </si>
+  <si>
+    <t>20201101</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>2964</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6765</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.156589</t>
+  </si>
+  <si>
+    <t>20201203</t>
+  </si>
+  <si>
+    <t>20211020</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>2121</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6768</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.112356</t>
+  </si>
+  <si>
+    <t>527408-000081</t>
+  </si>
+  <si>
+    <t>Randy Holmes</t>
+  </si>
+  <si>
+    <t>574856-000152</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
+    <t>20200430</t>
+  </si>
+  <si>
+    <t>20221113</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>2732</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6771</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.148493</t>
+  </si>
+  <si>
+    <t>527408-000082</t>
+  </si>
+  <si>
+    <t>Richard Barnes</t>
+  </si>
+  <si>
+    <t>574856-000070</t>
+  </si>
+  <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>20180703</t>
+  </si>
+  <si>
+    <t>20220224</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.527408.6780</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.10.474.574856.58221</t>
   </si>
 </sst>
 </file>
@@ -373,7 +2827,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -411,7 +2865,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,7 +3169,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -723,14 +3177,14 @@
   <cols>
     <col min="1" max="1" style="2" width="18.719285714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="29.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="34.57642857142857" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="10.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="2" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="2" width="14.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="2" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="2" width="38.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="2" width="39.86214285714286" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="2" width="68.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -1202,6 +3656,3467 @@
         <v>98</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+      <c r="A21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+      <c r="A22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+      <c r="A23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+      <c r="A24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+      <c r="A25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="A26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+      <c r="A27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+      <c r="A28" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+      <c r="A29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+      <c r="A30" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+      <c r="A31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+      <c r="A32" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+      <c r="A33" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+      <c r="A34" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+      <c r="A35" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
+      <c r="A36" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+      <c r="A37" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+      <c r="A38" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+      <c r="A39" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+      <c r="A40" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+      <c r="A41" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+      <c r="A42" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
+      <c r="A43" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
+      <c r="A44" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
+      <c r="A45" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
+      <c r="A46" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
+      <c r="A47" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
+      <c r="A48" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
+      <c r="A49" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
+      <c r="A50" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
+      <c r="A51" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
+      <c r="A52" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
+      <c r="A53" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
+      <c r="A54" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
+      <c r="A55" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
+      <c r="A56" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
+      <c r="A57" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
+      <c r="A58" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
+      <c r="A59" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
+      <c r="A60" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
+      <c r="A61" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
+      <c r="A62" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
+      <c r="A63" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
+      <c r="A64" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
+      <c r="A65" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
+      <c r="A66" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
+      <c r="A67" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
+      <c r="A68" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
+      <c r="A69" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
+      <c r="A70" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
+      <c r="A71" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
+      <c r="A72" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
+      <c r="A73" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
+      <c r="A74" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
+      <c r="A75" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
+      <c r="A76" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
+      <c r="A77" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
+      <c r="A78" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
+      <c r="A79" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
+      <c r="A80" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
+      <c r="A81" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
+      <c r="A82" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
+      <c r="A83" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
+      <c r="A84" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
+      <c r="A85" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
+      <c r="A86" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
+      <c r="A87" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
+      <c r="A88" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
+      <c r="A89" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
+      <c r="A90" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
+      <c r="A91" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
+      <c r="A92" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
+      <c r="A93" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
+      <c r="A94" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
+      <c r="A95" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
+      <c r="A96" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
+      <c r="A97" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
+      <c r="A98" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
+      <c r="A99" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
+      <c r="A100" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
+      <c r="A101" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
+      <c r="A102" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
+      <c r="A103" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
+      <c r="A104" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
+      <c r="A105" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
+      <c r="A106" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
+      <c r="A107" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
+      <c r="A108" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
+      <c r="A109" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
+      <c r="A110" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
+      <c r="A111" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
+      <c r="A112" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
+      <c r="A113" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/controller/assets/JavaGeneratedIndex.xlsx
+++ b/tests/controller/assets/JavaGeneratedIndex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="714">
   <si>
     <t>ANON-PatientName</t>
   </si>
@@ -55,18 +55,9 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>999</t>
-  </si>
-  <si>
     <t>1960</t>
   </si>
   <si>
-    <t>20111123</t>
-  </si>
-  <si>
-    <t>20170405</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -91,12 +82,6 @@
     <t>196</t>
   </si>
   <si>
-    <t>20180802</t>
-  </si>
-  <si>
-    <t>20190214</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -112,18 +97,9 @@
     <t>MISOYETHU POYO</t>
   </si>
   <si>
-    <t>2001035592084</t>
-  </si>
-  <si>
     <t>1135</t>
   </si>
   <si>
-    <t>20200503</t>
-  </si>
-  <si>
-    <t>20230612</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -142,18 +118,9 @@
     <t>PIKA</t>
   </si>
   <si>
-    <t>9999999999</t>
-  </si>
-  <si>
     <t>123</t>
   </si>
   <si>
-    <t>20190916</t>
-  </si>
-  <si>
-    <t>20200117</t>
-  </si>
-  <si>
     <t>1.2.826.0.1.3680043.10.474.527408.13</t>
   </si>
   <si>
@@ -166,18 +133,9 @@
     <t>NAZAREEN N. KHAN</t>
   </si>
   <si>
-    <t>6707280126081</t>
-  </si>
-  <si>
     <t>3228</t>
   </si>
   <si>
-    <t>20131112</t>
-  </si>
-  <si>
-    <t>20220914</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -193,7 +151,7 @@
     <t>527408-000006</t>
   </si>
   <si>
-    <t>5876</t>
+    <t>Fred Murphy</t>
   </si>
   <si>
     <t>1993</t>
@@ -217,12 +175,6 @@
     <t>526</t>
   </si>
   <si>
-    <t>20161207</t>
-  </si>
-  <si>
-    <t>20180517</t>
-  </si>
-  <si>
     <t>1.2.826.0.1.3680043.10.474.527408.22</t>
   </si>
   <si>
@@ -232,12 +184,12 @@
     <t>527408-000008</t>
   </si>
   <si>
+    <t>60xfhsje</t>
+  </si>
+  <si>
     <t>527</t>
   </si>
   <si>
-    <t>20100614</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -256,12 +208,6 @@
     <t>1931</t>
   </si>
   <si>
-    <t>20170809</t>
-  </si>
-  <si>
-    <t>20221122</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -280,9 +226,6 @@
     <t>1798</t>
   </si>
   <si>
-    <t>20150601</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -295,18 +238,9 @@
     <t>MICHAEL EVANS</t>
   </si>
   <si>
-    <t>12345678901</t>
-  </si>
-  <si>
     <t>1107</t>
   </si>
   <si>
-    <t>20031001</t>
-  </si>
-  <si>
-    <t>20061012</t>
-  </si>
-  <si>
     <t>1.2.826.0.1.3680043.10.474.527408.36</t>
   </si>
   <si>
@@ -319,18 +253,9 @@
     <t>KHUMALO OLUHLE Z MS</t>
   </si>
   <si>
-    <t>180216</t>
-  </si>
-  <si>
     <t>518</t>
   </si>
   <si>
-    <t>20200923</t>
-  </si>
-  <si>
-    <t>20220223</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -349,13 +274,13 @@
     <t>Anonymized</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>550</t>
   </si>
   <si>
-    <t>20050410</t>
+    <t>1.2.826.0.1.3680043.10.474.527408.39</t>
+  </si>
+  <si>
+    <t>1.2.826.0.1.3680043.8.1055.1.20111102150758591.92402465.9999</t>
   </si>
   <si>
     <t>527408-000014</t>
@@ -364,18 +289,9 @@
     <t>MALINGA NOMONDE MS</t>
   </si>
   <si>
-    <t>8302200823088</t>
-  </si>
-  <si>
     <t>218</t>
   </si>
   <si>
-    <t>20210725</t>
-  </si>
-  <si>
-    <t>20220228</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -394,15 +310,9 @@
     <t>MAHLAMBI NOLWAZI MS</t>
   </si>
   <si>
-    <t>7702101013088</t>
-  </si>
-  <si>
     <t>1281</t>
   </si>
   <si>
-    <t>20180827</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -421,18 +331,9 @@
     <t>SITHOLE  CYNTHIA THEMBISILE</t>
   </si>
   <si>
-    <t>6205150994084</t>
-  </si>
-  <si>
     <t>3388</t>
   </si>
   <si>
-    <t>20121116</t>
-  </si>
-  <si>
-    <t>20220225</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -451,15 +352,9 @@
     <t>SINGH THALWANTH MR</t>
   </si>
   <si>
-    <t>4707095050056</t>
-  </si>
-  <si>
     <t>2898</t>
   </si>
   <si>
-    <t>20140321</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -484,12 +379,6 @@
     <t>3139</t>
   </si>
   <si>
-    <t>20100711</t>
-  </si>
-  <si>
-    <t>20190213</t>
-  </si>
-  <si>
     <t>1.2.826.0.1.3680043.10.474.527408.6503</t>
   </si>
   <si>
@@ -502,18 +391,9 @@
     <t>NOMADWAYI BUYISWA</t>
   </si>
   <si>
-    <t>6804070825087</t>
-  </si>
-  <si>
     <t>3028</t>
   </si>
   <si>
-    <t>20150423</t>
-  </si>
-  <si>
-    <t>20230807</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -538,12 +418,6 @@
     <t>1979</t>
   </si>
   <si>
-    <t>20141106</t>
-  </si>
-  <si>
-    <t>20200407</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -556,12 +430,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.96102</t>
   </si>
   <si>
-    <t>20160618</t>
-  </si>
-  <si>
-    <t>20211118</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
@@ -574,12 +442,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.277758</t>
   </si>
   <si>
-    <t>20170113</t>
-  </si>
-  <si>
-    <t>20220615</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -598,9 +460,6 @@
     <t>2107</t>
   </si>
   <si>
-    <t>20111102</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -619,12 +478,6 @@
     <t>179</t>
   </si>
   <si>
-    <t>20201116</t>
-  </si>
-  <si>
-    <t>20210514</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -649,12 +502,6 @@
     <t>2164</t>
   </si>
   <si>
-    <t>20170121</t>
-  </si>
-  <si>
-    <t>20221225</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -676,12 +523,6 @@
     <t>1122</t>
   </si>
   <si>
-    <t>20190206</t>
-  </si>
-  <si>
-    <t>20220304</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -706,12 +547,6 @@
     <t>2318</t>
   </si>
   <si>
-    <t>20131118</t>
-  </si>
-  <si>
-    <t>20200324</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -724,12 +559,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.94418</t>
   </si>
   <si>
-    <t>20151220</t>
-  </si>
-  <si>
-    <t>20220425</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -742,12 +571,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.313586</t>
   </si>
   <si>
-    <t>20161024</t>
-  </si>
-  <si>
-    <t>20230228</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -772,12 +595,6 @@
     <t>3444</t>
   </si>
   <si>
-    <t>20120517</t>
-  </si>
-  <si>
-    <t>20211021</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
@@ -802,12 +619,6 @@
     <t>749</t>
   </si>
   <si>
-    <t>20180501</t>
-  </si>
-  <si>
-    <t>20200519</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -832,12 +643,6 @@
     <t>3461</t>
   </si>
   <si>
-    <t>20100808</t>
-  </si>
-  <si>
-    <t>20200129</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -862,12 +667,6 @@
     <t>2639</t>
   </si>
   <si>
-    <t>20141025</t>
-  </si>
-  <si>
-    <t>20220115</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
@@ -880,12 +679,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.87978</t>
   </si>
   <si>
-    <t>20141027</t>
-  </si>
-  <si>
-    <t>20220117</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -910,12 +703,6 @@
     <t>3635</t>
   </si>
   <si>
-    <t>20100825</t>
-  </si>
-  <si>
-    <t>20200807</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
@@ -940,12 +727,6 @@
     <t>163</t>
   </si>
   <si>
-    <t>20210321</t>
-  </si>
-  <si>
-    <t>20210831</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
@@ -970,12 +751,6 @@
     <t>1285</t>
   </si>
   <si>
-    <t>20190222</t>
-  </si>
-  <si>
-    <t>20220830</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
@@ -1000,12 +775,6 @@
     <t>1802</t>
   </si>
   <si>
-    <t>20151109</t>
-  </si>
-  <si>
-    <t>20201015</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -1030,12 +799,6 @@
     <t>1644</t>
   </si>
   <si>
-    <t>20151002</t>
-  </si>
-  <si>
-    <t>20200402</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
@@ -1060,12 +823,6 @@
     <t>3358</t>
   </si>
   <si>
-    <t>20110802</t>
-  </si>
-  <si>
-    <t>20201011</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
@@ -1078,12 +835,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.273207</t>
   </si>
   <si>
-    <t>20120109</t>
-  </si>
-  <si>
-    <t>20210320</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
@@ -1096,12 +847,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.91646</t>
   </si>
   <si>
-    <t>20120418</t>
-  </si>
-  <si>
-    <t>20210628</t>
-  </si>
-  <si>
     <t>89</t>
   </si>
   <si>
@@ -1126,12 +871,6 @@
     <t>2006</t>
   </si>
   <si>
-    <t>20161221</t>
-  </si>
-  <si>
-    <t>20220619</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
@@ -1156,12 +895,6 @@
     <t>2273</t>
   </si>
   <si>
-    <t>20160414</t>
-  </si>
-  <si>
-    <t>20220705</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
@@ -1174,12 +907,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.70232</t>
   </si>
   <si>
-    <t>20160829</t>
-  </si>
-  <si>
-    <t>20221119</t>
-  </si>
-  <si>
     <t>527408-000038</t>
   </si>
   <si>
@@ -1192,12 +919,6 @@
     <t>1773</t>
   </si>
   <si>
-    <t>20030825</t>
-  </si>
-  <si>
-    <t>20080702</t>
-  </si>
-  <si>
     <t>1.2.826.0.1.3680043.10.474.527408.6592</t>
   </si>
   <si>
@@ -1216,12 +937,6 @@
     <t>200</t>
   </si>
   <si>
-    <t>20190729</t>
-  </si>
-  <si>
-    <t>20200214</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
@@ -1246,12 +961,6 @@
     <t>1319</t>
   </si>
   <si>
-    <t>20160924</t>
-  </si>
-  <si>
-    <t>20200505</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -1264,12 +973,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.238290</t>
   </si>
   <si>
-    <t>20170309</t>
-  </si>
-  <si>
-    <t>20201018</t>
-  </si>
-  <si>
     <t>91</t>
   </si>
   <si>
@@ -1282,12 +985,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.129424</t>
   </si>
   <si>
-    <t>20180922</t>
-  </si>
-  <si>
-    <t>20220503</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
@@ -1312,12 +1009,6 @@
     <t>2713</t>
   </si>
   <si>
-    <t>20150525</t>
-  </si>
-  <si>
-    <t>20221028</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
@@ -1342,12 +1033,6 @@
     <t>336</t>
   </si>
   <si>
-    <t>20190318</t>
-  </si>
-  <si>
-    <t>20200217</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -1372,12 +1057,6 @@
     <t>1240</t>
   </si>
   <si>
-    <t>20200303</t>
-  </si>
-  <si>
-    <t>20230726</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
@@ -1402,12 +1081,6 @@
     <t>2260</t>
   </si>
   <si>
-    <t>20170111</t>
-  </si>
-  <si>
-    <t>20230321</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
@@ -1432,12 +1105,6 @@
     <t>1603</t>
   </si>
   <si>
-    <t>20170911</t>
-  </si>
-  <si>
-    <t>20220131</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
@@ -1462,9 +1129,6 @@
     <t>2921</t>
   </si>
   <si>
-    <t>20140620</t>
-  </si>
-  <si>
     <t>46</t>
   </si>
   <si>
@@ -1489,12 +1153,6 @@
     <t>3055</t>
   </si>
   <si>
-    <t>20140316</t>
-  </si>
-  <si>
-    <t>20220727</t>
-  </si>
-  <si>
     <t>4663</t>
   </si>
   <si>
@@ -1516,12 +1174,6 @@
     <t>450</t>
   </si>
   <si>
-    <t>20210919</t>
-  </si>
-  <si>
-    <t>20221213</t>
-  </si>
-  <si>
     <t>49</t>
   </si>
   <si>
@@ -1534,12 +1186,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.18824</t>
   </si>
   <si>
-    <t>20220427</t>
-  </si>
-  <si>
-    <t>20230721</t>
-  </si>
-  <si>
     <t>48</t>
   </si>
   <si>
@@ -1564,12 +1210,6 @@
     <t>2687</t>
   </si>
   <si>
-    <t>20130618</t>
-  </si>
-  <si>
-    <t>20201026</t>
-  </si>
-  <si>
     <t>1.2.826.0.1.3680043.10.474.527408.6631</t>
   </si>
   <si>
@@ -1588,9 +1228,6 @@
     <t>1226</t>
   </si>
   <si>
-    <t>20200521</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
@@ -1612,9 +1249,6 @@
     <t>607</t>
   </si>
   <si>
-    <t>20200701</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
@@ -1639,12 +1273,6 @@
     <t>703</t>
   </si>
   <si>
-    <t>20210215</t>
-  </si>
-  <si>
-    <t>20230119</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
@@ -1669,12 +1297,6 @@
     <t>590</t>
   </si>
   <si>
-    <t>20190710</t>
-  </si>
-  <si>
-    <t>20210219</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
@@ -1699,12 +1321,6 @@
     <t>896</t>
   </si>
   <si>
-    <t>20180505</t>
-  </si>
-  <si>
-    <t>20201017</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
@@ -1729,12 +1345,6 @@
     <t>151</t>
   </si>
   <si>
-    <t>20220612</t>
-  </si>
-  <si>
-    <t>20221110</t>
-  </si>
-  <si>
     <t>57</t>
   </si>
   <si>
@@ -1747,12 +1357,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.82688</t>
   </si>
   <si>
-    <t>20230126</t>
-  </si>
-  <si>
-    <t>20230626</t>
-  </si>
-  <si>
     <t>56</t>
   </si>
   <si>
@@ -1777,12 +1381,6 @@
     <t>1276</t>
   </si>
   <si>
-    <t>20161114</t>
-  </si>
-  <si>
-    <t>20200513</t>
-  </si>
-  <si>
     <t>58</t>
   </si>
   <si>
@@ -1795,12 +1393,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.123732</t>
   </si>
   <si>
-    <t>20181018</t>
-  </si>
-  <si>
-    <t>20220416</t>
-  </si>
-  <si>
     <t>59</t>
   </si>
   <si>
@@ -1822,12 +1414,6 @@
     <t>2200</t>
   </si>
   <si>
-    <t>20140926</t>
-  </si>
-  <si>
-    <t>20201004</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
@@ -1852,12 +1438,6 @@
     <t>2136</t>
   </si>
   <si>
-    <t>20151212</t>
-  </si>
-  <si>
-    <t>20211017</t>
-  </si>
-  <si>
     <t>61</t>
   </si>
   <si>
@@ -1879,12 +1459,6 @@
     <t>2021</t>
   </si>
   <si>
-    <t>20170916</t>
-  </si>
-  <si>
-    <t>20230330</t>
-  </si>
-  <si>
     <t>5211</t>
   </si>
   <si>
@@ -1906,9 +1480,6 @@
     <t>1239</t>
   </si>
   <si>
-    <t>20200613</t>
-  </si>
-  <si>
     <t>96</t>
   </si>
   <si>
@@ -1921,12 +1492,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.10767</t>
   </si>
   <si>
-    <t>20171005</t>
-  </si>
-  <si>
-    <t>20210225</t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
@@ -1939,12 +1504,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.236358</t>
   </si>
   <si>
-    <t>20200216</t>
-  </si>
-  <si>
-    <t>20230709</t>
-  </si>
-  <si>
     <t>527408-000061</t>
   </si>
   <si>
@@ -1957,12 +1516,6 @@
     <t>1341</t>
   </si>
   <si>
-    <t>20170501</t>
-  </si>
-  <si>
-    <t>20210101</t>
-  </si>
-  <si>
     <t>97</t>
   </si>
   <si>
@@ -1975,12 +1528,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.267753</t>
   </si>
   <si>
-    <t>20181101</t>
-  </si>
-  <si>
-    <t>20220704</t>
-  </si>
-  <si>
     <t>64</t>
   </si>
   <si>
@@ -2005,12 +1552,6 @@
     <t>2760</t>
   </si>
   <si>
-    <t>20130728</t>
-  </si>
-  <si>
-    <t>20210216</t>
-  </si>
-  <si>
     <t>66</t>
   </si>
   <si>
@@ -2023,9 +1564,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.16586</t>
   </si>
   <si>
-    <t>20210603</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
@@ -2050,12 +1588,6 @@
     <t>1853</t>
   </si>
   <si>
-    <t>20180228</t>
-  </si>
-  <si>
-    <t>20230327</t>
-  </si>
-  <si>
     <t>67</t>
   </si>
   <si>
@@ -2080,12 +1612,6 @@
     <t>716</t>
   </si>
   <si>
-    <t>20180401</t>
-  </si>
-  <si>
-    <t>20200317</t>
-  </si>
-  <si>
     <t>70</t>
   </si>
   <si>
@@ -2098,12 +1624,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.151054</t>
   </si>
   <si>
-    <t>20180512</t>
-  </si>
-  <si>
-    <t>20200427</t>
-  </si>
-  <si>
     <t>68</t>
   </si>
   <si>
@@ -2116,12 +1636,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.20052</t>
   </si>
   <si>
-    <t>20180928</t>
-  </si>
-  <si>
-    <t>20200913</t>
-  </si>
-  <si>
     <t>69</t>
   </si>
   <si>
@@ -2134,12 +1648,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.52422</t>
   </si>
   <si>
-    <t>20190616</t>
-  </si>
-  <si>
-    <t>20210601</t>
-  </si>
-  <si>
     <t>72</t>
   </si>
   <si>
@@ -2152,18 +1660,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.157742</t>
   </si>
   <si>
-    <t>20190926</t>
-  </si>
-  <si>
-    <t>20210911</t>
-  </si>
-  <si>
-    <t>20201230</t>
-  </si>
-  <si>
-    <t>20221216</t>
-  </si>
-  <si>
     <t>71</t>
   </si>
   <si>
@@ -2176,12 +1672,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.252279</t>
   </si>
   <si>
-    <t>20210208</t>
-  </si>
-  <si>
-    <t>20230125</t>
-  </si>
-  <si>
     <t>73</t>
   </si>
   <si>
@@ -2194,12 +1684,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.189686</t>
   </si>
   <si>
-    <t>20210801</t>
-  </si>
-  <si>
-    <t>20230718</t>
-  </si>
-  <si>
     <t>527408-000065</t>
   </si>
   <si>
@@ -2212,9 +1696,6 @@
     <t>3372</t>
   </si>
   <si>
-    <t>20130207</t>
-  </si>
-  <si>
     <t>74</t>
   </si>
   <si>
@@ -2239,12 +1720,6 @@
     <t>1734</t>
   </si>
   <si>
-    <t>20150712</t>
-  </si>
-  <si>
-    <t>20200410</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
@@ -2257,12 +1732,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.108028</t>
   </si>
   <si>
-    <t>20180528</t>
-  </si>
-  <si>
-    <t>20230225</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
@@ -2287,12 +1756,6 @@
     <t>1297</t>
   </si>
   <si>
-    <t>20170705</t>
-  </si>
-  <si>
-    <t>20210122</t>
-  </si>
-  <si>
     <t>77</t>
   </si>
   <si>
@@ -2305,18 +1768,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.42903</t>
   </si>
   <si>
-    <t>20171116</t>
-  </si>
-  <si>
-    <t>20210605</t>
-  </si>
-  <si>
-    <t>20190716</t>
-  </si>
-  <si>
-    <t>20230202</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -2329,9 +1780,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.59113</t>
   </si>
   <si>
-    <t>20191220</t>
-  </si>
-  <si>
     <t>76</t>
   </si>
   <si>
@@ -2356,12 +1804,6 @@
     <t>3294</t>
   </si>
   <si>
-    <t>20120414</t>
-  </si>
-  <si>
-    <t>20210421</t>
-  </si>
-  <si>
     <t>78</t>
   </si>
   <si>
@@ -2383,12 +1825,6 @@
     <t>2600</t>
   </si>
   <si>
-    <t>20150719</t>
-  </si>
-  <si>
-    <t>20220831</t>
-  </si>
-  <si>
     <t>80</t>
   </si>
   <si>
@@ -2401,12 +1837,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.328189</t>
   </si>
   <si>
-    <t>20160421</t>
-  </si>
-  <si>
-    <t>20230604</t>
-  </si>
-  <si>
     <t>79</t>
   </si>
   <si>
@@ -2431,12 +1861,6 @@
     <t>2058</t>
   </si>
   <si>
-    <t>20170529</t>
-  </si>
-  <si>
-    <t>20230116</t>
-  </si>
-  <si>
     <t>81</t>
   </si>
   <si>
@@ -2461,12 +1885,6 @@
     <t>540</t>
   </si>
   <si>
-    <t>20210221</t>
-  </si>
-  <si>
-    <t>20220815</t>
-  </si>
-  <si>
     <t>82</t>
   </si>
   <si>
@@ -2491,12 +1909,6 @@
     <t>1385</t>
   </si>
   <si>
-    <t>20160403</t>
-  </si>
-  <si>
-    <t>20200118</t>
-  </si>
-  <si>
     <t>83</t>
   </si>
   <si>
@@ -2518,12 +1930,6 @@
     <t>2067</t>
   </si>
   <si>
-    <t>20171126</t>
-  </si>
-  <si>
-    <t>20230725</t>
-  </si>
-  <si>
     <t>84</t>
   </si>
   <si>
@@ -2542,12 +1948,6 @@
     <t>574856-000053</t>
   </si>
   <si>
-    <t>20160430</t>
-  </si>
-  <si>
-    <t>20220205</t>
-  </si>
-  <si>
     <t>85</t>
   </si>
   <si>
@@ -2572,12 +1972,6 @@
     <t>328</t>
   </si>
   <si>
-    <t>20220723</t>
-  </si>
-  <si>
-    <t>20230616</t>
-  </si>
-  <si>
     <t>86</t>
   </si>
   <si>
@@ -2599,12 +1993,6 @@
     <t>574856-000114</t>
   </si>
   <si>
-    <t>20200925</t>
-  </si>
-  <si>
-    <t>20210523</t>
-  </si>
-  <si>
     <t>87</t>
   </si>
   <si>
@@ -2629,12 +2017,6 @@
     <t>138</t>
   </si>
   <si>
-    <t>20210528</t>
-  </si>
-  <si>
-    <t>20211013</t>
-  </si>
-  <si>
     <t>88</t>
   </si>
   <si>
@@ -2656,12 +2038,6 @@
     <t>2023</t>
   </si>
   <si>
-    <t>20150704</t>
-  </si>
-  <si>
-    <t>20210116</t>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
@@ -2686,12 +2062,6 @@
     <t>1382</t>
   </si>
   <si>
-    <t>20190310</t>
-  </si>
-  <si>
-    <t>20221221</t>
-  </si>
-  <si>
     <t>92</t>
   </si>
   <si>
@@ -2716,12 +2086,6 @@
     <t>321</t>
   </si>
   <si>
-    <t>20191216</t>
-  </si>
-  <si>
-    <t>20201101</t>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
@@ -2734,12 +2098,6 @@
     <t>1.2.826.0.1.3680043.10.474.574856.156589</t>
   </si>
   <si>
-    <t>20201203</t>
-  </si>
-  <si>
-    <t>20211020</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
@@ -2764,12 +2122,6 @@
     <t>927</t>
   </si>
   <si>
-    <t>20200430</t>
-  </si>
-  <si>
-    <t>20221113</t>
-  </si>
-  <si>
     <t>95</t>
   </si>
   <si>
@@ -2792,12 +2144,6 @@
   </si>
   <si>
     <t>1332</t>
-  </si>
-  <si>
-    <t>20180703</t>
-  </si>
-  <si>
-    <t>20220224</t>
   </si>
   <si>
     <t>98</t>
@@ -2827,7 +2173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2859,13 +2205,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3175,20 +2527,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="34.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="2" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="2" width="39.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="2" width="68.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="39.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="3" width="68.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3198,16 +2550,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -3223,7 +2575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3233,3888 +2585,3892 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2">
+        <v>999</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2">
+        <v>20111123</v>
+      </c>
+      <c r="G2" s="2">
+        <v>20170405</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="2">
+        <v>20180802</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20190214</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2001035592084</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20200503</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20230612</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D5" s="2">
+        <v>9999999999</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>45</v>
+      <c r="F5" s="2">
+        <v>20190916</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20200117</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6707280126081</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20131112</v>
+      </c>
+      <c r="G6" s="2">
+        <v>20220914</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5876</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="2">
+        <v>20010202</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20020909</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20161207</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20180517</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20100614</v>
+      </c>
+      <c r="G9" s="2">
+        <v>20111123</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20170809</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20221122</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20150601</v>
+      </c>
+      <c r="G11" s="2">
+        <v>20200503</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="D12" s="2">
+        <v>12345678901</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>96</v>
+      <c r="F12" s="2">
+        <v>20031001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>20061012</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>76</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
+      </c>
+      <c r="D13" s="2">
+        <v>180216</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>79</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20200923</v>
+      </c>
+      <c r="G13" s="2">
+        <v>20220223</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4848497000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20050410</v>
+      </c>
+      <c r="G14" s="2">
+        <v>20061012</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8302200823088</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="2">
+        <v>20210725</v>
+      </c>
+      <c r="G15" s="2">
+        <v>20220228</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="D16" s="2">
+        <v>7702101013088</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+      <c r="F16" s="2">
+        <v>20180827</v>
+      </c>
+      <c r="G16" s="2">
+        <v>20220228</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6205150994084</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="2">
+        <v>20121116</v>
+      </c>
+      <c r="G17" s="2">
+        <v>20220225</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4707095050056</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="2">
+        <v>20140321</v>
+      </c>
+      <c r="G18" s="2">
+        <v>20220225</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>157</v>
+      <c r="F19" s="2">
+        <v>20100711</v>
+      </c>
+      <c r="G19" s="2">
+        <v>20190213</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6804070825087</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="2">
+        <v>20150423</v>
+      </c>
+      <c r="G20" s="2">
+        <v>20230807</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="2">
+        <v>20141106</v>
+      </c>
+      <c r="G21" s="2">
+        <v>20200407</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="2">
+        <v>20160618</v>
+      </c>
+      <c r="G22" s="2">
+        <v>20211118</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="2">
+        <v>20170113</v>
+      </c>
+      <c r="G23" s="2">
+        <v>20220615</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="2">
+        <v>20111102</v>
+      </c>
+      <c r="G24" s="2">
+        <v>20170809</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="2">
+        <v>20201116</v>
+      </c>
+      <c r="G25" s="2">
+        <v>20210514</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F26" s="2">
+        <v>20170121</v>
+      </c>
+      <c r="G26" s="2">
+        <v>20221225</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="I26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="F27" s="2">
+        <v>20190206</v>
+      </c>
+      <c r="G27" s="2">
+        <v>20220304</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="F28" s="2">
+        <v>20131118</v>
+      </c>
+      <c r="G28" s="2">
+        <v>20200324</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="K28" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="2">
+        <v>20151220</v>
+      </c>
+      <c r="G29" s="2">
+        <v>20220425</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K22" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="2">
+        <v>20161024</v>
+      </c>
+      <c r="G30" s="2">
+        <v>20230228</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I23" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
-      <c r="A24" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F31" s="2">
+        <v>20120517</v>
+      </c>
+      <c r="G31" s="2">
+        <v>20211021</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F32" s="2">
+        <v>20180501</v>
+      </c>
+      <c r="G32" s="2">
+        <v>20200519</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J25" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
-      <c r="A26" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F33" s="2">
+        <v>20100808</v>
+      </c>
+      <c r="G33" s="2">
+        <v>20200129</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H26" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
-      <c r="A27" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="F34" s="2">
+        <v>20141025</v>
+      </c>
+      <c r="G34" s="2">
+        <v>20220115</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="F35" s="2">
+        <v>20141027</v>
+      </c>
+      <c r="G35" s="2">
+        <v>20220117</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="K27" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
-      <c r="A28" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F36" s="2">
+        <v>20100825</v>
+      </c>
+      <c r="G36" s="2">
+        <v>20200807</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I28" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
-      <c r="A29" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="F37" s="2">
+        <v>20210321</v>
+      </c>
+      <c r="G37" s="2">
+        <v>20210831</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="K29" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
-      <c r="A30" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="F38" s="2">
+        <v>20190222</v>
+      </c>
+      <c r="G38" s="2">
+        <v>20220830</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
-      <c r="A31" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="F39" s="2">
+        <v>20151109</v>
+      </c>
+      <c r="G39" s="2">
+        <v>20201015</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K31" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F40" s="2">
+        <v>20151002</v>
+      </c>
+      <c r="G40" s="2">
+        <v>20200402</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="I32" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
-      <c r="A33" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="F41" s="2">
+        <v>20110802</v>
+      </c>
+      <c r="G41" s="2">
+        <v>20201011</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="F42" s="2">
+        <v>20120109</v>
+      </c>
+      <c r="G42" s="2">
+        <v>20210320</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="K33" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" s="2">
+        <v>20120418</v>
+      </c>
+      <c r="G43" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
-      <c r="A34" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E34" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="F44" s="2">
+        <v>20161221</v>
+      </c>
+      <c r="G44" s="2">
+        <v>20220619</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
-      <c r="A35" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G35" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="F45" s="2">
+        <v>20160414</v>
+      </c>
+      <c r="G45" s="2">
+        <v>20220705</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
-      <c r="A36" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="J45" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F46" s="2">
+        <v>20160829</v>
+      </c>
+      <c r="G46" s="2">
+        <v>20221119</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E36" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
-      <c r="A37" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
-      <c r="A38" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
-      <c r="A39" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
-      <c r="A40" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
-      <c r="A41" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
-      <c r="A42" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
-      <c r="A43" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
-      <c r="A44" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
-      <c r="A45" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
-      <c r="A46" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
-      <c r="A47" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>393</v>
+      <c r="F47" s="2">
+        <v>20030825</v>
+      </c>
+      <c r="G47" s="2">
+        <v>20080702</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>394</v>
+        <v>301</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>395</v>
+        <v>302</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
       <c r="A48" s="1" t="s">
-        <v>396</v>
+        <v>303</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>396</v>
+        <v>303</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>398</v>
+        <v>304</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>401</v>
+        <v>306</v>
+      </c>
+      <c r="F48" s="2">
+        <v>20190729</v>
+      </c>
+      <c r="G48" s="2">
+        <v>20200214</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>402</v>
+        <v>307</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
       <c r="A49" s="1" t="s">
-        <v>406</v>
+        <v>311</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>406</v>
+        <v>311</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>408</v>
+        <v>312</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>411</v>
+        <v>314</v>
+      </c>
+      <c r="F49" s="2">
+        <v>20160924</v>
+      </c>
+      <c r="G49" s="2">
+        <v>20200505</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>412</v>
+        <v>315</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>413</v>
+        <v>316</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>414</v>
+        <v>317</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>415</v>
+        <v>318</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="1" t="s">
-        <v>406</v>
+        <v>311</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>406</v>
+        <v>311</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>408</v>
+        <v>312</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>417</v>
+        <v>314</v>
+      </c>
+      <c r="F50" s="2">
+        <v>20170309</v>
+      </c>
+      <c r="G50" s="2">
+        <v>20201018</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>421</v>
+        <v>322</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
       <c r="A51" s="1" t="s">
-        <v>406</v>
+        <v>311</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>406</v>
+        <v>311</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>408</v>
+        <v>312</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>423</v>
+        <v>314</v>
+      </c>
+      <c r="F51" s="2">
+        <v>20180922</v>
+      </c>
+      <c r="G51" s="2">
+        <v>20220503</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>425</v>
+        <v>324</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>426</v>
+        <v>325</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>427</v>
+        <v>326</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="1" t="s">
-        <v>428</v>
+        <v>327</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>428</v>
+        <v>327</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>430</v>
+        <v>328</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>433</v>
+        <v>330</v>
+      </c>
+      <c r="F52" s="2">
+        <v>20150525</v>
+      </c>
+      <c r="G52" s="2">
+        <v>20221028</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>434</v>
+        <v>331</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>435</v>
+        <v>332</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>436</v>
+        <v>333</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>437</v>
+        <v>334</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
       <c r="A53" s="1" t="s">
-        <v>438</v>
+        <v>335</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>438</v>
+        <v>335</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>440</v>
+        <v>336</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>443</v>
+        <v>338</v>
+      </c>
+      <c r="F53" s="2">
+        <v>20190318</v>
+      </c>
+      <c r="G53" s="2">
+        <v>20200217</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>444</v>
+        <v>339</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>445</v>
+        <v>340</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>446</v>
+        <v>341</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>447</v>
+        <v>342</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
       <c r="A54" s="1" t="s">
-        <v>448</v>
+        <v>343</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>448</v>
+        <v>343</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>450</v>
+        <v>344</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>453</v>
+        <v>346</v>
+      </c>
+      <c r="F54" s="2">
+        <v>20200303</v>
+      </c>
+      <c r="G54" s="2">
+        <v>20230726</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>454</v>
+        <v>347</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>455</v>
+        <v>348</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>457</v>
+        <v>350</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
       <c r="A55" s="1" t="s">
-        <v>458</v>
+        <v>351</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>458</v>
+        <v>351</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>460</v>
+        <v>352</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>463</v>
+        <v>354</v>
+      </c>
+      <c r="F55" s="2">
+        <v>20170111</v>
+      </c>
+      <c r="G55" s="2">
+        <v>20230321</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>464</v>
+        <v>355</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>465</v>
+        <v>356</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>466</v>
+        <v>357</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>467</v>
+        <v>358</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="1" t="s">
-        <v>468</v>
+        <v>359</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>468</v>
+        <v>359</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>470</v>
+        <v>360</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>473</v>
+        <v>362</v>
+      </c>
+      <c r="F56" s="2">
+        <v>20170911</v>
+      </c>
+      <c r="G56" s="2">
+        <v>20220131</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>474</v>
+        <v>363</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>475</v>
+        <v>364</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>476</v>
+        <v>365</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>477</v>
+        <v>366</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="1" t="s">
-        <v>478</v>
+        <v>367</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>478</v>
+        <v>367</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>480</v>
+        <v>368</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G57" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F57" s="2">
+        <v>20140620</v>
+      </c>
+      <c r="G57" s="2">
+        <v>20220619</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="I57" s="1" t="s">
-        <v>484</v>
+        <v>372</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>485</v>
+        <v>373</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>486</v>
+        <v>374</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
       <c r="A58" s="1" t="s">
-        <v>487</v>
+        <v>375</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>487</v>
+        <v>375</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>489</v>
+        <v>376</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>492</v>
+        <v>378</v>
+      </c>
+      <c r="F58" s="2">
+        <v>20140316</v>
+      </c>
+      <c r="G58" s="2">
+        <v>20220727</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>493</v>
+        <v>379</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>494</v>
+        <v>380</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>495</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
       <c r="A59" s="1" t="s">
-        <v>496</v>
+        <v>382</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>496</v>
+        <v>382</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>498</v>
+        <v>383</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>501</v>
+        <v>385</v>
+      </c>
+      <c r="F59" s="2">
+        <v>20210919</v>
+      </c>
+      <c r="G59" s="2">
+        <v>20221213</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>502</v>
+        <v>386</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>503</v>
+        <v>387</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>504</v>
+        <v>388</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
       <c r="A60" s="1" t="s">
-        <v>496</v>
+        <v>382</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>496</v>
+        <v>382</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>498</v>
+        <v>383</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>507</v>
+        <v>385</v>
+      </c>
+      <c r="F60" s="2">
+        <v>20220427</v>
+      </c>
+      <c r="G60" s="2">
+        <v>20230721</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>508</v>
+        <v>390</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>509</v>
+        <v>391</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>510</v>
+        <v>392</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>511</v>
+        <v>393</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
       <c r="A61" s="1" t="s">
-        <v>512</v>
+        <v>394</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>512</v>
+        <v>394</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>514</v>
+        <v>395</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>517</v>
+        <v>397</v>
+      </c>
+      <c r="F61" s="2">
+        <v>20130618</v>
+      </c>
+      <c r="G61" s="2">
+        <v>20201026</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>445</v>
+        <v>340</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>508</v>
+        <v>390</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>518</v>
+        <v>398</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>519</v>
+        <v>399</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
       <c r="A62" s="1" t="s">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>522</v>
+        <v>401</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>524</v>
+        <v>403</v>
+      </c>
+      <c r="F62" s="2">
+        <v>20170111</v>
+      </c>
+      <c r="G62" s="2">
+        <v>20200521</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>525</v>
+        <v>404</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>356</v>
+        <v>273</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>526</v>
+        <v>405</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>527</v>
+        <v>406</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
       <c r="A63" s="1" t="s">
-        <v>528</v>
+        <v>407</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>528</v>
+        <v>407</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>530</v>
+        <v>408</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>119</v>
+        <v>410</v>
+      </c>
+      <c r="F63" s="2">
+        <v>20200701</v>
+      </c>
+      <c r="G63" s="2">
+        <v>20220228</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>533</v>
+        <v>411</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>534</v>
+        <v>412</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>535</v>
+        <v>413</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>536</v>
+        <v>414</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
       <c r="A64" s="1" t="s">
-        <v>537</v>
+        <v>415</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>537</v>
+        <v>415</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>539</v>
+        <v>416</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>542</v>
+        <v>418</v>
+      </c>
+      <c r="F64" s="2">
+        <v>20210215</v>
+      </c>
+      <c r="G64" s="2">
+        <v>20230119</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>543</v>
+        <v>419</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>544</v>
+        <v>420</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>545</v>
+        <v>421</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>546</v>
+        <v>422</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
       <c r="A65" s="1" t="s">
-        <v>547</v>
+        <v>423</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>547</v>
+        <v>423</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>549</v>
+        <v>424</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>552</v>
+        <v>426</v>
+      </c>
+      <c r="F65" s="2">
+        <v>20190710</v>
+      </c>
+      <c r="G65" s="2">
+        <v>20210219</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>553</v>
+        <v>427</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>554</v>
+        <v>428</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>555</v>
+        <v>429</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>556</v>
+        <v>430</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
       <c r="A66" s="1" t="s">
-        <v>557</v>
+        <v>431</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>557</v>
+        <v>431</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>559</v>
+        <v>432</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>562</v>
+        <v>434</v>
+      </c>
+      <c r="F66" s="2">
+        <v>20180505</v>
+      </c>
+      <c r="G66" s="2">
+        <v>20201017</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>563</v>
+        <v>435</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>564</v>
+        <v>436</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>565</v>
+        <v>437</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>566</v>
+        <v>438</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
       <c r="A67" s="1" t="s">
-        <v>567</v>
+        <v>439</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>567</v>
+        <v>439</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>569</v>
+        <v>440</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>572</v>
+        <v>442</v>
+      </c>
+      <c r="F67" s="2">
+        <v>20220612</v>
+      </c>
+      <c r="G67" s="2">
+        <v>20221110</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>573</v>
+        <v>443</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>574</v>
+        <v>444</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>575</v>
+        <v>445</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>576</v>
+        <v>446</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
       <c r="A68" s="1" t="s">
-        <v>567</v>
+        <v>439</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>567</v>
+        <v>439</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>569</v>
+        <v>440</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>578</v>
+        <v>442</v>
+      </c>
+      <c r="F68" s="2">
+        <v>20230126</v>
+      </c>
+      <c r="G68" s="2">
+        <v>20230626</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>579</v>
+        <v>447</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>580</v>
+        <v>448</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>581</v>
+        <v>449</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>582</v>
+        <v>450</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
       <c r="A69" s="1" t="s">
-        <v>583</v>
+        <v>451</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>583</v>
+        <v>451</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>585</v>
+        <v>452</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>588</v>
+        <v>454</v>
+      </c>
+      <c r="F69" s="2">
+        <v>20161114</v>
+      </c>
+      <c r="G69" s="2">
+        <v>20200513</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>589</v>
+        <v>455</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>590</v>
+        <v>456</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>591</v>
+        <v>457</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>592</v>
+        <v>458</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
       <c r="A70" s="1" t="s">
-        <v>583</v>
+        <v>451</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>583</v>
+        <v>451</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>585</v>
+        <v>452</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>594</v>
+        <v>454</v>
+      </c>
+      <c r="F70" s="2">
+        <v>20181018</v>
+      </c>
+      <c r="G70" s="2">
+        <v>20220416</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>595</v>
+        <v>459</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>434</v>
+        <v>331</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>596</v>
+        <v>460</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>597</v>
+        <v>461</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
       <c r="A71" s="1" t="s">
-        <v>598</v>
+        <v>462</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>598</v>
+        <v>462</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>600</v>
+        <v>463</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>603</v>
+        <v>465</v>
+      </c>
+      <c r="F71" s="2">
+        <v>20140926</v>
+      </c>
+      <c r="G71" s="2">
+        <v>20201004</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>604</v>
+        <v>466</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>605</v>
+        <v>467</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>606</v>
+        <v>468</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>607</v>
+        <v>469</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
       <c r="A72" s="1" t="s">
-        <v>608</v>
+        <v>470</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>608</v>
+        <v>470</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>610</v>
+        <v>471</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>613</v>
+        <v>473</v>
+      </c>
+      <c r="F72" s="2">
+        <v>20151212</v>
+      </c>
+      <c r="G72" s="2">
+        <v>20211017</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>614</v>
+        <v>474</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>589</v>
+        <v>455</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>615</v>
+        <v>475</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>616</v>
+        <v>476</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
       <c r="A73" s="1" t="s">
-        <v>617</v>
+        <v>477</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>617</v>
+        <v>477</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>619</v>
+        <v>478</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>622</v>
+        <v>480</v>
+      </c>
+      <c r="F73" s="2">
+        <v>20170916</v>
+      </c>
+      <c r="G73" s="2">
+        <v>20230330</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>580</v>
+        <v>448</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>623</v>
+        <v>481</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>624</v>
+        <v>482</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>625</v>
+        <v>483</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
       <c r="A74" s="1" t="s">
-        <v>626</v>
+        <v>484</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>626</v>
+        <v>484</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>628</v>
+        <v>485</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>630</v>
+        <v>487</v>
+      </c>
+      <c r="F74" s="2">
+        <v>20170121</v>
+      </c>
+      <c r="G74" s="2">
+        <v>20200613</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>631</v>
+        <v>488</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>632</v>
+        <v>489</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>633</v>
+        <v>490</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>634</v>
+        <v>491</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
       <c r="A75" s="1" t="s">
-        <v>626</v>
+        <v>484</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>626</v>
+        <v>484</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>628</v>
+        <v>485</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>636</v>
+        <v>487</v>
+      </c>
+      <c r="F75" s="2">
+        <v>20171005</v>
+      </c>
+      <c r="G75" s="2">
+        <v>20210225</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>637</v>
+        <v>492</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>638</v>
+        <v>493</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>639</v>
+        <v>494</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>640</v>
+        <v>495</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
       <c r="A76" s="1" t="s">
-        <v>626</v>
+        <v>484</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>626</v>
+        <v>484</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>628</v>
+        <v>485</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>642</v>
+        <v>487</v>
+      </c>
+      <c r="F76" s="2">
+        <v>20200216</v>
+      </c>
+      <c r="G76" s="2">
+        <v>20230709</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>637</v>
+        <v>492</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>638</v>
+        <v>493</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>639</v>
+        <v>494</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>640</v>
+        <v>495</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
       <c r="A77" s="1" t="s">
-        <v>643</v>
+        <v>496</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>643</v>
+        <v>496</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>645</v>
+        <v>497</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>648</v>
+        <v>499</v>
+      </c>
+      <c r="F77" s="2">
+        <v>20170501</v>
+      </c>
+      <c r="G77" s="2">
+        <v>20210101</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>649</v>
+        <v>500</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>650</v>
+        <v>501</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>651</v>
+        <v>502</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>652</v>
+        <v>503</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
       <c r="A78" s="1" t="s">
-        <v>643</v>
+        <v>496</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>643</v>
+        <v>496</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>645</v>
+        <v>497</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>654</v>
+        <v>499</v>
+      </c>
+      <c r="F78" s="2">
+        <v>20181101</v>
+      </c>
+      <c r="G78" s="2">
+        <v>20220704</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>655</v>
+        <v>504</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>656</v>
+        <v>505</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>657</v>
+        <v>506</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>658</v>
+        <v>507</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
       <c r="A79" s="1" t="s">
-        <v>659</v>
+        <v>508</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>659</v>
+        <v>508</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>661</v>
+        <v>509</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>664</v>
+        <v>511</v>
+      </c>
+      <c r="F79" s="2">
+        <v>20130728</v>
+      </c>
+      <c r="G79" s="2">
+        <v>20210216</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>665</v>
+        <v>512</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>666</v>
+        <v>513</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>667</v>
+        <v>514</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>668</v>
+        <v>515</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
       <c r="A80" s="1" t="s">
-        <v>659</v>
+        <v>508</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>659</v>
+        <v>508</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>661</v>
+        <v>509</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>669</v>
+        <v>511</v>
+      </c>
+      <c r="F80" s="2">
+        <v>20131112</v>
+      </c>
+      <c r="G80" s="2">
+        <v>20210603</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>670</v>
+        <v>516</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>671</v>
+        <v>517</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>672</v>
+        <v>518</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>673</v>
+        <v>519</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
       <c r="A81" s="1" t="s">
-        <v>674</v>
+        <v>520</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>674</v>
+        <v>520</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>676</v>
+        <v>521</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>679</v>
+        <v>523</v>
+      </c>
+      <c r="F81" s="2">
+        <v>20180228</v>
+      </c>
+      <c r="G81" s="2">
+        <v>20230327</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>680</v>
+        <v>524</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>681</v>
+        <v>525</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>682</v>
+        <v>526</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>683</v>
+        <v>527</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
       <c r="A82" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>686</v>
+        <v>529</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>689</v>
+        <v>531</v>
+      </c>
+      <c r="F82" s="2">
+        <v>20180401</v>
+      </c>
+      <c r="G82" s="2">
+        <v>20200317</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>690</v>
+        <v>532</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>691</v>
+        <v>533</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>692</v>
+        <v>534</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>693</v>
+        <v>535</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
       <c r="A83" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>686</v>
+        <v>529</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>695</v>
+        <v>531</v>
+      </c>
+      <c r="F83" s="2">
+        <v>20180512</v>
+      </c>
+      <c r="G83" s="2">
+        <v>20200427</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>696</v>
+        <v>536</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>697</v>
+        <v>537</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>698</v>
+        <v>538</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>699</v>
+        <v>539</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
       <c r="A84" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>686</v>
+        <v>529</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>701</v>
+        <v>531</v>
+      </c>
+      <c r="F84" s="2">
+        <v>20180928</v>
+      </c>
+      <c r="G84" s="2">
+        <v>20200913</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>702</v>
+        <v>540</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>703</v>
+        <v>541</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>704</v>
+        <v>542</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>705</v>
+        <v>543</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
       <c r="A85" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>686</v>
+        <v>529</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>707</v>
+        <v>531</v>
+      </c>
+      <c r="F85" s="2">
+        <v>20190616</v>
+      </c>
+      <c r="G85" s="2">
+        <v>20210601</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>708</v>
+        <v>544</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>709</v>
+        <v>545</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>710</v>
+        <v>546</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>711</v>
+        <v>547</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
       <c r="A86" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>686</v>
+        <v>529</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>713</v>
+        <v>531</v>
+      </c>
+      <c r="F86" s="2">
+        <v>20190926</v>
+      </c>
+      <c r="G86" s="2">
+        <v>20210911</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>708</v>
+        <v>544</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>709</v>
+        <v>545</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>710</v>
+        <v>546</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>711</v>
+        <v>547</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
       <c r="A87" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>686</v>
+        <v>529</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>715</v>
+        <v>531</v>
+      </c>
+      <c r="F87" s="2">
+        <v>20201230</v>
+      </c>
+      <c r="G87" s="2">
+        <v>20221216</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>716</v>
+        <v>548</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>717</v>
+        <v>549</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>718</v>
+        <v>550</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
       <c r="A88" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>686</v>
+        <v>529</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>721</v>
+        <v>531</v>
+      </c>
+      <c r="F88" s="2">
+        <v>20210208</v>
+      </c>
+      <c r="G88" s="2">
+        <v>20230125</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>722</v>
+        <v>552</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>723</v>
+        <v>553</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>724</v>
+        <v>554</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>725</v>
+        <v>555</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
       <c r="A89" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>686</v>
+        <v>529</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>727</v>
+        <v>531</v>
+      </c>
+      <c r="F89" s="2">
+        <v>20210801</v>
+      </c>
+      <c r="G89" s="2">
+        <v>20230718</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>702</v>
+        <v>540</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>703</v>
+        <v>541</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>704</v>
+        <v>542</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>705</v>
+        <v>543</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
       <c r="A90" s="1" t="s">
-        <v>728</v>
+        <v>556</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>728</v>
+        <v>556</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>730</v>
+        <v>557</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>423</v>
+        <v>559</v>
+      </c>
+      <c r="F90" s="2">
+        <v>20130207</v>
+      </c>
+      <c r="G90" s="2">
+        <v>20220503</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>733</v>
+        <v>560</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>734</v>
+        <v>561</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>735</v>
+        <v>562</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>736</v>
+        <v>563</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
       <c r="A91" s="1" t="s">
-        <v>737</v>
+        <v>564</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>737</v>
+        <v>564</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>739</v>
+        <v>565</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>742</v>
+        <v>567</v>
+      </c>
+      <c r="F91" s="2">
+        <v>20150712</v>
+      </c>
+      <c r="G91" s="2">
+        <v>20200410</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>743</v>
+        <v>568</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>744</v>
+        <v>569</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>745</v>
+        <v>570</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>746</v>
+        <v>571</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
       <c r="A92" s="1" t="s">
-        <v>737</v>
+        <v>564</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>737</v>
+        <v>564</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>739</v>
+        <v>565</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>748</v>
+        <v>567</v>
+      </c>
+      <c r="F92" s="2">
+        <v>20180528</v>
+      </c>
+      <c r="G92" s="2">
+        <v>20230225</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>749</v>
+        <v>572</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>750</v>
+        <v>573</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>751</v>
+        <v>574</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>752</v>
+        <v>575</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
       <c r="A93" s="1" t="s">
-        <v>753</v>
+        <v>576</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>753</v>
+        <v>576</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>755</v>
+        <v>577</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>758</v>
+        <v>579</v>
+      </c>
+      <c r="F93" s="2">
+        <v>20170705</v>
+      </c>
+      <c r="G93" s="2">
+        <v>20210122</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>759</v>
+        <v>580</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>760</v>
+        <v>581</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>761</v>
+        <v>582</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>762</v>
+        <v>583</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
       <c r="A94" s="1" t="s">
-        <v>753</v>
+        <v>576</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>753</v>
+        <v>576</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>755</v>
+        <v>577</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>764</v>
+        <v>579</v>
+      </c>
+      <c r="F94" s="2">
+        <v>20171116</v>
+      </c>
+      <c r="G94" s="2">
+        <v>20210605</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>759</v>
+        <v>580</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>760</v>
+        <v>581</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>761</v>
+        <v>582</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>762</v>
+        <v>583</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
       <c r="A95" s="1" t="s">
-        <v>753</v>
+        <v>576</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>753</v>
+        <v>576</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>755</v>
+        <v>577</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>766</v>
+        <v>579</v>
+      </c>
+      <c r="F95" s="2">
+        <v>20190716</v>
+      </c>
+      <c r="G95" s="2">
+        <v>20230202</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>767</v>
+        <v>584</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>768</v>
+        <v>585</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>769</v>
+        <v>586</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>770</v>
+        <v>587</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
       <c r="A96" s="1" t="s">
-        <v>753</v>
+        <v>576</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>753</v>
+        <v>576</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>755</v>
+        <v>577</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>642</v>
+        <v>579</v>
+      </c>
+      <c r="F96" s="2">
+        <v>20191220</v>
+      </c>
+      <c r="G96" s="2">
+        <v>20230709</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>772</v>
+        <v>588</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>773</v>
+        <v>589</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>774</v>
+        <v>590</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>775</v>
+        <v>591</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
       <c r="A97" s="1" t="s">
-        <v>776</v>
+        <v>592</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>776</v>
+        <v>592</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>778</v>
+        <v>593</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>594</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>781</v>
+        <v>595</v>
+      </c>
+      <c r="F97" s="2">
+        <v>20120414</v>
+      </c>
+      <c r="G97" s="2">
+        <v>20210421</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>782</v>
+        <v>596</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>655</v>
+        <v>504</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>783</v>
+        <v>597</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>784</v>
+        <v>598</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
       <c r="A98" s="1" t="s">
-        <v>785</v>
+        <v>599</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>785</v>
+        <v>599</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>787</v>
+        <v>600</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>601</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>790</v>
+        <v>602</v>
+      </c>
+      <c r="F98" s="2">
+        <v>20150719</v>
+      </c>
+      <c r="G98" s="2">
+        <v>20220831</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>791</v>
+        <v>603</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>792</v>
+        <v>604</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>793</v>
+        <v>605</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>794</v>
+        <v>606</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
       <c r="A99" s="1" t="s">
-        <v>785</v>
+        <v>599</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>785</v>
+        <v>599</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>787</v>
+        <v>600</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>601</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>796</v>
+        <v>602</v>
+      </c>
+      <c r="F99" s="2">
+        <v>20160421</v>
+      </c>
+      <c r="G99" s="2">
+        <v>20230604</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>797</v>
+        <v>607</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>798</v>
+        <v>608</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>799</v>
+        <v>609</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>800</v>
+        <v>610</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
       <c r="A100" s="1" t="s">
-        <v>801</v>
+        <v>611</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>801</v>
+        <v>611</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>803</v>
+        <v>612</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>806</v>
+        <v>614</v>
+      </c>
+      <c r="F100" s="2">
+        <v>20170529</v>
+      </c>
+      <c r="G100" s="2">
+        <v>20230116</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>807</v>
+        <v>615</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>808</v>
+        <v>616</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>809</v>
+        <v>617</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>810</v>
+        <v>618</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
       <c r="A101" s="1" t="s">
-        <v>811</v>
+        <v>619</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>811</v>
+        <v>619</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>813</v>
+        <v>620</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>621</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>816</v>
+        <v>622</v>
+      </c>
+      <c r="F101" s="2">
+        <v>20210221</v>
+      </c>
+      <c r="G101" s="2">
+        <v>20220815</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>817</v>
+        <v>623</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>818</v>
+        <v>624</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>819</v>
+        <v>625</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>820</v>
+        <v>626</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
       <c r="A102" s="1" t="s">
-        <v>821</v>
+        <v>627</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>821</v>
+        <v>627</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>823</v>
+        <v>628</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>826</v>
+        <v>630</v>
+      </c>
+      <c r="F102" s="2">
+        <v>20160403</v>
+      </c>
+      <c r="G102" s="2">
+        <v>20200118</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>827</v>
+        <v>631</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>828</v>
+        <v>632</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>829</v>
+        <v>633</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
       <c r="A103" s="1" t="s">
-        <v>830</v>
+        <v>634</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>830</v>
+        <v>634</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>832</v>
+        <v>635</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>636</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>835</v>
+        <v>637</v>
+      </c>
+      <c r="F103" s="2">
+        <v>20171126</v>
+      </c>
+      <c r="G103" s="2">
+        <v>20230725</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>836</v>
+        <v>638</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>797</v>
+        <v>607</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>837</v>
+        <v>639</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>838</v>
+        <v>640</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
       <c r="A104" s="1" t="s">
-        <v>839</v>
+        <v>641</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>839</v>
+        <v>641</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>841</v>
+        <v>642</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>643</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>843</v>
+        <v>147</v>
+      </c>
+      <c r="F104" s="2">
+        <v>20160430</v>
+      </c>
+      <c r="G104" s="2">
+        <v>20220205</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>844</v>
+        <v>644</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>845</v>
+        <v>645</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>846</v>
+        <v>646</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>847</v>
+        <v>647</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
       <c r="A105" s="1" t="s">
-        <v>848</v>
+        <v>648</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>848</v>
+        <v>648</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>850</v>
+        <v>649</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>853</v>
+        <v>651</v>
+      </c>
+      <c r="F105" s="2">
+        <v>20220723</v>
+      </c>
+      <c r="G105" s="2">
+        <v>20230616</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>854</v>
+        <v>652</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>855</v>
+        <v>653</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>856</v>
+        <v>654</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>857</v>
+        <v>655</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
       <c r="A106" s="1" t="s">
-        <v>858</v>
+        <v>656</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>858</v>
+        <v>656</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>860</v>
+        <v>657</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>862</v>
+        <v>513</v>
+      </c>
+      <c r="F106" s="2">
+        <v>20200925</v>
+      </c>
+      <c r="G106" s="2">
+        <v>20210523</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>863</v>
+        <v>659</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>864</v>
+        <v>660</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>865</v>
+        <v>661</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>866</v>
+        <v>662</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
       <c r="A107" s="1" t="s">
-        <v>867</v>
+        <v>663</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>867</v>
+        <v>663</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>869</v>
+        <v>664</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>665</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>872</v>
+        <v>666</v>
+      </c>
+      <c r="F107" s="2">
+        <v>20210528</v>
+      </c>
+      <c r="G107" s="2">
+        <v>20211013</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>873</v>
+        <v>667</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>759</v>
+        <v>580</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>874</v>
+        <v>668</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>875</v>
+        <v>669</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
       <c r="A108" s="1" t="s">
-        <v>876</v>
+        <v>670</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>876</v>
+        <v>670</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>878</v>
+        <v>671</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>672</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>881</v>
+        <v>673</v>
+      </c>
+      <c r="F108" s="2">
+        <v>20150704</v>
+      </c>
+      <c r="G108" s="2">
+        <v>20210116</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>882</v>
+        <v>674</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>883</v>
+        <v>675</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>884</v>
+        <v>676</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>885</v>
+        <v>677</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
       <c r="A109" s="1" t="s">
-        <v>886</v>
+        <v>678</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>886</v>
+        <v>678</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>888</v>
+        <v>679</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>680</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>891</v>
+        <v>681</v>
+      </c>
+      <c r="F109" s="2">
+        <v>20190310</v>
+      </c>
+      <c r="G109" s="2">
+        <v>20221221</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>892</v>
+        <v>682</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>893</v>
+        <v>683</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>894</v>
+        <v>684</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>895</v>
+        <v>685</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
       <c r="A110" s="1" t="s">
-        <v>896</v>
+        <v>686</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>896</v>
+        <v>686</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>898</v>
+        <v>687</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>688</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>901</v>
+        <v>689</v>
+      </c>
+      <c r="F110" s="2">
+        <v>20191216</v>
+      </c>
+      <c r="G110" s="2">
+        <v>20201101</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>902</v>
+        <v>690</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>903</v>
+        <v>691</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>904</v>
+        <v>692</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>905</v>
+        <v>693</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
       <c r="A111" s="1" t="s">
-        <v>896</v>
+        <v>686</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>896</v>
+        <v>686</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>898</v>
+        <v>687</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>688</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>907</v>
+        <v>689</v>
+      </c>
+      <c r="F111" s="2">
+        <v>20201203</v>
+      </c>
+      <c r="G111" s="2">
+        <v>20211020</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>908</v>
+        <v>694</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>909</v>
+        <v>695</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>910</v>
+        <v>696</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>911</v>
+        <v>697</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
       <c r="A112" s="1" t="s">
-        <v>912</v>
+        <v>698</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>912</v>
+        <v>698</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>914</v>
+        <v>699</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>700</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>917</v>
+        <v>701</v>
+      </c>
+      <c r="F112" s="2">
+        <v>20200430</v>
+      </c>
+      <c r="G112" s="2">
+        <v>20221113</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>918</v>
+        <v>702</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>919</v>
+        <v>703</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>920</v>
+        <v>704</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>921</v>
+        <v>705</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
       <c r="A113" s="1" t="s">
-        <v>922</v>
+        <v>706</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>922</v>
+        <v>706</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>924</v>
+        <v>707</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>708</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>927</v>
+        <v>709</v>
+      </c>
+      <c r="F113" s="2">
+        <v>20180703</v>
+      </c>
+      <c r="G113" s="2">
+        <v>20220224</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>928</v>
+        <v>710</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>929</v>
+        <v>711</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>930</v>
+        <v>712</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>931</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
